--- a/2.테이블정의서/_테이블정의서.xlsx
+++ b/2.테이블정의서/_테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="11.0" lowestEdited="11.0" rupBuild="10.105.292.56109"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="720" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -3948,7 +3948,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.000000" customHeight="1"/>
@@ -8153,7 +8153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:I20"/>
     </sheetView>
   </sheetViews>
@@ -8999,8 +8999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.000000" customHeight="1"/>
